--- a/name.xlsx
+++ b/name.xlsx
@@ -14,6 +14,7 @@
     <sheet name="20thAug, 2021" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="31thAug, 2021" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="03thSep, 2021" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="11thSep, 2021" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -22,9 +23,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1563,4 +1565,73 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BARKAT</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>44450.87703130787</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <v>44450.87708763889</v>
+      </c>
+      <c r="E2" s="10" t="n">
+        <v>44450.87713575231</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <v>44450.87718730697</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>57.38756673793869</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.41789086541215</v>
+      </c>
+      <c r="E3" t="n">
+        <v>54.25104163473586</v>
+      </c>
+      <c r="F3" t="n">
+        <v>51.08050264201491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/name.xlsx
+++ b/name.xlsx
@@ -15,6 +15,10 @@
     <sheet name="31thAug, 2021" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="03thSep, 2021" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="11thSep, 2021" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="13thSep, 2021" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="15thSep, 2021" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="18thSep, 2021" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="19thSep, 2021" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -23,10 +27,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -452,6 +455,1330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:DB7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BARKAT</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>44452.53796965277</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <v>44452.53965027778</v>
+      </c>
+      <c r="E2" s="10" t="n">
+        <v>44452.53970168981</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <v>44452.5397497801</v>
+      </c>
+      <c r="G2" s="10" t="n">
+        <v>44452.53980273148</v>
+      </c>
+      <c r="H2" s="10" t="n">
+        <v>44452.53985450231</v>
+      </c>
+      <c r="I2" s="10" t="n">
+        <v>44452.55714960648</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>44452.55724423611</v>
+      </c>
+      <c r="K2" s="10" t="n">
+        <v>44452.55729813658</v>
+      </c>
+      <c r="L2" s="10" t="n">
+        <v>44452.55734519676</v>
+      </c>
+      <c r="M2" s="10" t="n">
+        <v>44452.55739785879</v>
+      </c>
+      <c r="N2" s="10" t="n">
+        <v>44452.55744583334</v>
+      </c>
+      <c r="O2" s="10" t="n">
+        <v>44452.5574936574</v>
+      </c>
+      <c r="P2" s="10" t="n">
+        <v>44452.55754371528</v>
+      </c>
+      <c r="Q2" s="10" t="n">
+        <v>44452.5575915625</v>
+      </c>
+      <c r="R2" s="10" t="n">
+        <v>44452.55775979166</v>
+      </c>
+      <c r="S2" s="10" t="n">
+        <v>44452.55780912037</v>
+      </c>
+      <c r="T2" s="10" t="n">
+        <v>44452.55786561342</v>
+      </c>
+      <c r="U2" s="10" t="n">
+        <v>44452.55791349537</v>
+      </c>
+      <c r="V2" s="10" t="n">
+        <v>44452.55796074074</v>
+      </c>
+      <c r="W2" s="10" t="n">
+        <v>44452.55802813658</v>
+      </c>
+      <c r="X2" s="10" t="n">
+        <v>44452.55807594908</v>
+      </c>
+      <c r="Y2" s="10" t="n">
+        <v>44452.55812487269</v>
+      </c>
+      <c r="Z2" s="10" t="n">
+        <v>44452.55820432871</v>
+      </c>
+      <c r="AA2" s="10" t="n">
+        <v>44452.55825689815</v>
+      </c>
+      <c r="AB2" s="10" t="n">
+        <v>44452.55830851852</v>
+      </c>
+      <c r="AC2" s="10" t="n">
+        <v>44452.55836511574</v>
+      </c>
+      <c r="AD2" s="10" t="n">
+        <v>44452.55842</v>
+      </c>
+      <c r="AE2" s="10" t="n">
+        <v>44452.55847195602</v>
+      </c>
+      <c r="AF2" s="10" t="n">
+        <v>44452.55852946759</v>
+      </c>
+      <c r="AG2" s="10" t="n">
+        <v>44452.55857766204</v>
+      </c>
+      <c r="AH2" s="10" t="n">
+        <v>44452.55892634259</v>
+      </c>
+      <c r="AI2" s="10" t="n">
+        <v>44452.55898189815</v>
+      </c>
+      <c r="AJ2" s="10" t="n">
+        <v>44452.55904436343</v>
+      </c>
+      <c r="AK2" s="10" t="n">
+        <v>44452.55911015046</v>
+      </c>
+      <c r="AL2" s="10" t="n">
+        <v>44452.55916127315</v>
+      </c>
+      <c r="AM2" s="10" t="n">
+        <v>44452.55922960648</v>
+      </c>
+      <c r="AN2" s="10" t="n">
+        <v>44452.55990428241</v>
+      </c>
+      <c r="AO2" s="10" t="n">
+        <v>44452.56003954861</v>
+      </c>
+      <c r="AP2" s="10" t="n">
+        <v>44452.56009732639</v>
+      </c>
+      <c r="AQ2" s="10" t="n">
+        <v>44452.56014688657</v>
+      </c>
+      <c r="AR2" s="10" t="n">
+        <v>44452.56021246528</v>
+      </c>
+      <c r="AS2" s="10" t="n">
+        <v>44452.56033063657</v>
+      </c>
+      <c r="AT2" s="10" t="n">
+        <v>44452.5604787037</v>
+      </c>
+      <c r="AU2" s="10" t="n">
+        <v>44452.56052667824</v>
+      </c>
+      <c r="AV2" s="10" t="n">
+        <v>44452.56057690972</v>
+      </c>
+      <c r="AW2" s="10" t="n">
+        <v>44452.56062648149</v>
+      </c>
+      <c r="AX2" s="10" t="n">
+        <v>44452.56067726852</v>
+      </c>
+      <c r="AY2" s="10" t="n">
+        <v>44452.56073178241</v>
+      </c>
+      <c r="AZ2" s="10" t="n">
+        <v>44452.56078421296</v>
+      </c>
+      <c r="BA2" s="10" t="n">
+        <v>44452.56084177084</v>
+      </c>
+      <c r="BB2" s="10" t="n">
+        <v>44452.56089498843</v>
+      </c>
+      <c r="BC2" s="10" t="n">
+        <v>44452.56094746528</v>
+      </c>
+      <c r="BD2" s="10" t="n">
+        <v>44452.56099709491</v>
+      </c>
+      <c r="BE2" s="10" t="n">
+        <v>44452.56105004629</v>
+      </c>
+      <c r="BF2" s="10" t="n">
+        <v>44452.56110011574</v>
+      </c>
+      <c r="BG2" s="10" t="n">
+        <v>44452.56115459491</v>
+      </c>
+      <c r="BH2" s="10" t="n">
+        <v>44452.56120885417</v>
+      </c>
+      <c r="BI2" s="10" t="n">
+        <v>44452.56127497686</v>
+      </c>
+      <c r="BJ2" s="10" t="n">
+        <v>44452.56138328704</v>
+      </c>
+      <c r="BK2" s="10" t="n">
+        <v>44452.56145081019</v>
+      </c>
+      <c r="BL2" s="10" t="n">
+        <v>44452.56150445602</v>
+      </c>
+      <c r="BM2" s="10" t="n">
+        <v>44452.56163846065</v>
+      </c>
+      <c r="BN2" s="10" t="n">
+        <v>44452.56172098379</v>
+      </c>
+      <c r="BO2" s="10" t="n">
+        <v>44452.56179224537</v>
+      </c>
+      <c r="BP2" s="10" t="n">
+        <v>44452.56184443287</v>
+      </c>
+      <c r="BQ2" s="10" t="n">
+        <v>44452.56192266204</v>
+      </c>
+      <c r="BR2" s="10" t="n">
+        <v>44452.56197497685</v>
+      </c>
+      <c r="BS2" s="10" t="n">
+        <v>44452.5620396875</v>
+      </c>
+      <c r="BT2" s="10" t="n">
+        <v>44452.56214035879</v>
+      </c>
+      <c r="BU2" s="10" t="n">
+        <v>44452.5621905787</v>
+      </c>
+      <c r="BV2" s="10" t="n">
+        <v>44452.56236858796</v>
+      </c>
+      <c r="BW2" s="10" t="n">
+        <v>44452.56243180556</v>
+      </c>
+      <c r="BX2" s="10" t="n">
+        <v>44452.56247835648</v>
+      </c>
+      <c r="BY2" s="10" t="n">
+        <v>44452.56252481481</v>
+      </c>
+      <c r="BZ2" s="10" t="n">
+        <v>44452.56267543982</v>
+      </c>
+      <c r="CA2" s="10" t="n">
+        <v>44452.5628303125</v>
+      </c>
+      <c r="CB2" s="10" t="n">
+        <v>44452.56288239583</v>
+      </c>
+      <c r="CC2" s="10" t="n">
+        <v>44452.56295052083</v>
+      </c>
+      <c r="CD2" s="10" t="n">
+        <v>44452.56300491898</v>
+      </c>
+      <c r="CE2" s="10" t="n">
+        <v>44452.56305511574</v>
+      </c>
+      <c r="CF2" s="10" t="n">
+        <v>44452.56311233796</v>
+      </c>
+      <c r="CG2" s="10" t="n">
+        <v>44452.56315974537</v>
+      </c>
+      <c r="CH2" s="10" t="n">
+        <v>44452.56321269676</v>
+      </c>
+      <c r="CI2" s="10" t="n">
+        <v>44452.563298125</v>
+      </c>
+      <c r="CJ2" s="10" t="n">
+        <v>44452.56335065972</v>
+      </c>
+      <c r="CK2" s="10" t="n">
+        <v>44452.56340135416</v>
+      </c>
+      <c r="CL2" s="10" t="n">
+        <v>44452.56344896991</v>
+      </c>
+      <c r="CM2" s="10" t="n">
+        <v>44452.56349804398</v>
+      </c>
+      <c r="CN2" s="10" t="n">
+        <v>44452.56354743055</v>
+      </c>
+      <c r="CO2" s="10" t="n">
+        <v>44452.56392901621</v>
+      </c>
+      <c r="CP2" s="10" t="n">
+        <v>44452.56401893518</v>
+      </c>
+      <c r="CQ2" s="10" t="n">
+        <v>44452.5641908912</v>
+      </c>
+      <c r="CR2" s="10" t="n">
+        <v>44452.56424802083</v>
+      </c>
+      <c r="CS2" s="10" t="n">
+        <v>44452.56430126158</v>
+      </c>
+      <c r="CT2" s="10" t="n">
+        <v>44452.56435104166</v>
+      </c>
+      <c r="CU2" s="10" t="n">
+        <v>44452.56439804398</v>
+      </c>
+      <c r="CV2" s="10" t="n">
+        <v>44452.56444708334</v>
+      </c>
+      <c r="CW2" s="10" t="n">
+        <v>44452.56449478009</v>
+      </c>
+      <c r="CX2" s="10" t="n">
+        <v>44452.56454827546</v>
+      </c>
+      <c r="CY2" s="10" t="n">
+        <v>44452.56459945602</v>
+      </c>
+      <c r="CZ2" s="10" t="n">
+        <v>44452.564885625</v>
+      </c>
+      <c r="DA2" s="10" t="n">
+        <v>44452.56493811343</v>
+      </c>
+      <c r="DB2" s="10" t="n">
+        <v>44452.56499215278</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51.5211278985317</v>
+      </c>
+      <c r="D3" t="n">
+        <v>53.43985335199875</v>
+      </c>
+      <c r="E3" t="n">
+        <v>57.70196271262161</v>
+      </c>
+      <c r="F3" t="n">
+        <v>57.96817314949207</v>
+      </c>
+      <c r="G3" t="n">
+        <v>56.66564914638927</v>
+      </c>
+      <c r="H3" t="n">
+        <v>60.99717206918993</v>
+      </c>
+      <c r="I3" t="n">
+        <v>51.52449804498468</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50.49341009943288</v>
+      </c>
+      <c r="K3" t="n">
+        <v>59.28649955102527</v>
+      </c>
+      <c r="L3" t="n">
+        <v>57.55601301505285</v>
+      </c>
+      <c r="M3" t="n">
+        <v>57.69987003655095</v>
+      </c>
+      <c r="N3" t="n">
+        <v>60.51205740459484</v>
+      </c>
+      <c r="O3" t="n">
+        <v>59.33769113194317</v>
+      </c>
+      <c r="P3" t="n">
+        <v>59.16193657938207</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>57.68440507945586</v>
+      </c>
+      <c r="R3" t="n">
+        <v>57.50705121736611</v>
+      </c>
+      <c r="S3" t="n">
+        <v>59.4270107302634</v>
+      </c>
+      <c r="T3" t="n">
+        <v>58.063690586223</v>
+      </c>
+      <c r="U3" t="n">
+        <v>59.15378799951126</v>
+      </c>
+      <c r="V3" t="n">
+        <v>56.49363540501381</v>
+      </c>
+      <c r="W3" t="n">
+        <v>56.97187857655238</v>
+      </c>
+      <c r="X3" t="n">
+        <v>52.23588160465636</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>55.55604820464129</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>61.14933129133852</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>57.26069370738782</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>55.80672398451018</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>57.67740850827917</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>56.18220108857634</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>57.01287070774887</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>53.83588876633101</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>50.24385176456412</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>54.30687762226876</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>50.3528779667863</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>50.11253535466108</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>50.26495298786285</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>52.03096866125374</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>53.16691873551594</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>60.67149957865706</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>52.52178046954723</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>54.01490747956041</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>56.34059481660157</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>59.18423122771605</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>50.56943661770169</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>52.35728065434994</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>57.48792936036407</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>56.96407539383215</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>53.07095730934056</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>54.19313118413816</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>55.44318361637461</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>57.17462076357015</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>57.2937687332505</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>59.36144221850017</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>56.47131313483475</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>58.20021634257694</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>60.78024006859673</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>56.49188054430487</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>56.40898795846857</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>56.28811104063947</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>51.35094873476064</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>58.71887999555673</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>59.26840588881329</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>52.45444097441224</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>50.32374968949967</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>56.44028334110584</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>56.6104101555967</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>54.17747332236102</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>57.13032014845876</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>51.78466223058597</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>53.44779346190204</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>50.64598216323652</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>52.91549309712681</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>52.22402508275191</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>54.27912008494625</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>51.85120520910982</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>50.97955129024368</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>54.96083454781348</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>52.0299734877311</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>53.7377335711992</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>53.44244845537482</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>59.10139192295425</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>52.43297646834155</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>50.46269419352885</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>54.75241124704178</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>58.58850998695817</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>50.9544213720452</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>52.78471326844571</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>56.1475547271812</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>57.35092350243907</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>58.51604929543007</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>52.29414108902782</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>51.24241819318018</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>51.14543472035221</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>55.04397619645606</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>55.7360127788599</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>57.73093094750358</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>63.3363135410262</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>56.99881248482156</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>54.70714259760544</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>54.57673691872277</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>52.28135236771897</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>51.22821744725515</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>57.2564762759314</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>57.82639911614108</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>53.22754568669127</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DIP</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>44452.55861783565</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>44452.55866586805</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>44452.55871391204</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>44452.55876148148</v>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>44452.55880993055</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>44452.55885898148</v>
+      </c>
+      <c r="I4" s="10" t="n">
+        <v>44452.5589090162</v>
+      </c>
+      <c r="J4" s="10" t="n">
+        <v>44452.55946452546</v>
+      </c>
+      <c r="K4" s="10" t="n">
+        <v>44452.55971730324</v>
+      </c>
+      <c r="L4" s="10" t="n">
+        <v>44452.56357928241</v>
+      </c>
+      <c r="M4" s="10" t="n">
+        <v>44452.56362811343</v>
+      </c>
+      <c r="N4" s="10" t="n">
+        <v>44452.56367532408</v>
+      </c>
+      <c r="O4" s="10" t="n">
+        <v>44452.56372195602</v>
+      </c>
+      <c r="P4" s="10" t="n">
+        <v>44452.56377157407</v>
+      </c>
+      <c r="Q4" s="10" t="n">
+        <v>44452.5638206713</v>
+      </c>
+      <c r="R4" s="10" t="n">
+        <v>44452.56387188657</v>
+      </c>
+      <c r="S4" s="10" t="n">
+        <v>44452.56391932871</v>
+      </c>
+      <c r="T4" s="10" t="n">
+        <v>44452.56483105324</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>62.47866770033722</v>
+      </c>
+      <c r="D5" t="n">
+        <v>72.29993950781834</v>
+      </c>
+      <c r="E5" t="n">
+        <v>72.36535444486242</v>
+      </c>
+      <c r="F5" t="n">
+        <v>74.31922545600182</v>
+      </c>
+      <c r="G5" t="n">
+        <v>73.26690107223675</v>
+      </c>
+      <c r="H5" t="n">
+        <v>71.13374538313298</v>
+      </c>
+      <c r="I5" t="n">
+        <v>74.36956737378758</v>
+      </c>
+      <c r="J5" t="n">
+        <v>51.55401950724038</v>
+      </c>
+      <c r="K5" t="n">
+        <v>54.80764212348335</v>
+      </c>
+      <c r="L5" t="n">
+        <v>55.95407461576964</v>
+      </c>
+      <c r="M5" t="n">
+        <v>65.90819427011905</v>
+      </c>
+      <c r="N5" t="n">
+        <v>64.94570668983647</v>
+      </c>
+      <c r="O5" t="n">
+        <v>64.78635202737752</v>
+      </c>
+      <c r="P5" t="n">
+        <v>63.42818861962123</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>65.22507753064022</v>
+      </c>
+      <c r="R5" t="n">
+        <v>64.11933016933764</v>
+      </c>
+      <c r="S5" t="n">
+        <v>66.28138547659482</v>
+      </c>
+      <c r="T5" t="n">
+        <v>56.29272858661433</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PARTHO</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>44452.55949306713</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>44452.55954261574</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>44452.55970986111</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>44452.55975836806</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>44452.55993378472</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>44452.55998246527</v>
+      </c>
+      <c r="I6" s="10" t="n">
+        <v>44452.56003137732</v>
+      </c>
+      <c r="J6" s="10" t="n">
+        <v>44452.56161262732</v>
+      </c>
+      <c r="K6" s="10" t="n">
+        <v>44452.56255395833</v>
+      </c>
+      <c r="L6" s="10" t="n">
+        <v>44452.56264728009</v>
+      </c>
+      <c r="M6" s="10" t="n">
+        <v>44452.56470912037</v>
+      </c>
+      <c r="N6" s="10" t="n">
+        <v>44452.56480395833</v>
+      </c>
+      <c r="O6" s="10" t="n">
+        <v>44452.56486545139</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>54.31525658336015</v>
+      </c>
+      <c r="D7" t="n">
+        <v>52.21831816194339</v>
+      </c>
+      <c r="E7" t="n">
+        <v>55.21936280837721</v>
+      </c>
+      <c r="F7" t="n">
+        <v>55.14684068212556</v>
+      </c>
+      <c r="G7" t="n">
+        <v>70.38226423767952</v>
+      </c>
+      <c r="H7" t="n">
+        <v>67.89561539882902</v>
+      </c>
+      <c r="I7" t="n">
+        <v>66.44730897519207</v>
+      </c>
+      <c r="J7" t="n">
+        <v>53.04511023097784</v>
+      </c>
+      <c r="K7" t="n">
+        <v>61.40561664922092</v>
+      </c>
+      <c r="L7" t="n">
+        <v>50.35790845897532</v>
+      </c>
+      <c r="M7" t="n">
+        <v>53.82097026746342</v>
+      </c>
+      <c r="N7" t="n">
+        <v>55.77406080528984</v>
+      </c>
+      <c r="O7" t="n">
+        <v>61.73517766086571</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BARKAT</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>44454.8594971412</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <v>44454.85954900463</v>
+      </c>
+      <c r="E2" s="10" t="n">
+        <v>44454.85960203704</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <v>44454.88689958333</v>
+      </c>
+      <c r="G2" s="10" t="n">
+        <v>44454.88694702546</v>
+      </c>
+      <c r="H2" s="10" t="n">
+        <v>44454.88700270833</v>
+      </c>
+      <c r="I2" s="10" t="n">
+        <v>44454.88705380787</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51.02796010450964</v>
+      </c>
+      <c r="D3" t="n">
+        <v>59.62753670140192</v>
+      </c>
+      <c r="E3" t="n">
+        <v>57.35182744306289</v>
+      </c>
+      <c r="F3" t="n">
+        <v>67.19475259661809</v>
+      </c>
+      <c r="G3" t="n">
+        <v>65.6386205875575</v>
+      </c>
+      <c r="H3" t="n">
+        <v>58.49314616139415</v>
+      </c>
+      <c r="I3" t="n">
+        <v>59.09843352186198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BARKAT</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>44457.98733398148</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <v>44457.98739438658</v>
+      </c>
+      <c r="E2" s="10" t="n">
+        <v>44457.98744978009</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <v>44457.98750398148</v>
+      </c>
+      <c r="G2" s="10" t="n">
+        <v>44457.98757151621</v>
+      </c>
+      <c r="H2" s="10" t="n">
+        <v>44457.98762856481</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50.83822509483751</v>
+      </c>
+      <c r="D3" t="n">
+        <v>58.70524736669442</v>
+      </c>
+      <c r="E3" t="n">
+        <v>51.47834041079094</v>
+      </c>
+      <c r="F3" t="n">
+        <v>57.05669860767401</v>
+      </c>
+      <c r="G3" t="n">
+        <v>52.09416004842097</v>
+      </c>
+      <c r="H3" t="n">
+        <v>53.65891010445161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BARKAT</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>44458.38830539352</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <v>44458.38835457176</v>
+      </c>
+      <c r="E2" s="10" t="n">
+        <v>44458.38840695602</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <v>44458.38846070602</v>
+      </c>
+      <c r="G2" s="10" t="n">
+        <v>44458.38851355324</v>
+      </c>
+      <c r="H2" s="10" t="n">
+        <v>44458.3885656713</v>
+      </c>
+      <c r="I2" s="10" t="n">
+        <v>44458.38861809028</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>44458.38866832176</v>
+      </c>
+      <c r="K2" s="10" t="n">
+        <v>44458.38876739583</v>
+      </c>
+      <c r="L2" s="10" t="n">
+        <v>44458.38881952546</v>
+      </c>
+      <c r="M2" s="10" t="n">
+        <v>44458.38887248842</v>
+      </c>
+      <c r="N2" s="10" t="n">
+        <v>44458.38892483796</v>
+      </c>
+      <c r="O2" s="10" t="n">
+        <v>44458.44744583334</v>
+      </c>
+      <c r="P2" s="10" t="n">
+        <v>44458.44749850695</v>
+      </c>
+      <c r="Q2" s="10" t="n">
+        <v>44458.44754887732</v>
+      </c>
+      <c r="R2" s="10" t="n">
+        <v>44458.44759643519</v>
+      </c>
+      <c r="S2" s="10" t="n">
+        <v>44458.44764649306</v>
+      </c>
+      <c r="T2" s="10" t="n">
+        <v>44458.44769824074</v>
+      </c>
+      <c r="U2" s="10" t="n">
+        <v>44458.44775115741</v>
+      </c>
+      <c r="V2" s="10" t="n">
+        <v>44458.44780447917</v>
+      </c>
+      <c r="W2" s="10" t="n">
+        <v>44458.44785747685</v>
+      </c>
+      <c r="X2" s="10" t="n">
+        <v>44458.44794174768</v>
+      </c>
+      <c r="Y2" s="10" t="n">
+        <v>44458.44800261574</v>
+      </c>
+      <c r="Z2" s="10" t="n">
+        <v>44458.44809935185</v>
+      </c>
+      <c r="AA2" s="10" t="n">
+        <v>44458.44815229167</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>56.61994305163916</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64.75792678816231</v>
+      </c>
+      <c r="E3" t="n">
+        <v>64.17614600903619</v>
+      </c>
+      <c r="F3" t="n">
+        <v>58.35251747880276</v>
+      </c>
+      <c r="G3" t="n">
+        <v>58.6128189806994</v>
+      </c>
+      <c r="H3" t="n">
+        <v>51.03242035785412</v>
+      </c>
+      <c r="I3" t="n">
+        <v>55.37511111528758</v>
+      </c>
+      <c r="J3" t="n">
+        <v>53.45222088878925</v>
+      </c>
+      <c r="K3" t="n">
+        <v>57.56084068142574</v>
+      </c>
+      <c r="L3" t="n">
+        <v>56.92249552560808</v>
+      </c>
+      <c r="M3" t="n">
+        <v>61.21536745411417</v>
+      </c>
+      <c r="N3" t="n">
+        <v>64.42911280509429</v>
+      </c>
+      <c r="O3" t="n">
+        <v>55.17982786053837</v>
+      </c>
+      <c r="P3" t="n">
+        <v>64.50156286185791</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>58.87655600110465</v>
+      </c>
+      <c r="R3" t="n">
+        <v>63.793624284093</v>
+      </c>
+      <c r="S3" t="n">
+        <v>55.50813820814951</v>
+      </c>
+      <c r="T3" t="n">
+        <v>53.06460597701637</v>
+      </c>
+      <c r="U3" t="n">
+        <v>52.39776714055673</v>
+      </c>
+      <c r="V3" t="n">
+        <v>57.52464070211386</v>
+      </c>
+      <c r="W3" t="n">
+        <v>55.92785792330244</v>
+      </c>
+      <c r="X3" t="n">
+        <v>58.2434017638174</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>55.20142730485902</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>61.86473893180884</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>59.53993784933733</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DIP</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>44458.38871300926</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>44458.44801730324</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>44458.44806979167</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>72.12568815214344</v>
+      </c>
+      <c r="D5" t="n">
+        <v>57.82566583740827</v>
+      </c>
+      <c r="E5" t="n">
+        <v>76.35841852354253</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SELF</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>44458.44787247685</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>44458.44792498842</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>63.0114406399214</v>
+      </c>
+      <c r="D7" t="n">
+        <v>66.134018347059</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1609,7 +2936,7 @@
         <v>44450.87713575231</v>
       </c>
       <c r="F2" s="10" t="n">
-        <v>44450.87718730697</v>
+        <v>44450.87718730324</v>
       </c>
     </row>
     <row r="3">
